--- a/openchs-server-api/src/test/resources/Test Import.xlsx
+++ b/openchs-server-api/src/test/resources/Test Import.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mihir/projects/work/openchs/openchs-server/openchs-server-api/src/test/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015A4280-1C00-F84C-B7E8-61882A241069}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Amalzar_Madhyamik_24-7" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Amalzar_Prathmik_3-8" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Madhyamik_Follow up_26-9" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="ambos 3-10" sheetId="4" r:id="rId6"/>
+    <sheet name="Amalzar_Madhyamik_24-7" sheetId="1" r:id="rId1"/>
+    <sheet name="Amalzar_Prathmik_3-8" sheetId="2" r:id="rId2"/>
+    <sheet name="Madhyamik_Follow up_26-9" sheetId="3" r:id="rId3"/>
+    <sheet name="Relationship" sheetId="5" r:id="rId4"/>
+    <sheet name="ambos 3-10" sheetId="4" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="172">
   <si>
     <t>Sr No</t>
   </si>
@@ -497,41 +514,100 @@
   </si>
   <si>
     <t>16/7/2006</t>
+  </si>
+  <si>
+    <t>IndividualAUUID</t>
+  </si>
+  <si>
+    <t>IndividualBUUID</t>
+  </si>
+  <si>
+    <t>RelationshipType</t>
+  </si>
+  <si>
+    <t>EnterDateTime</t>
+  </si>
+  <si>
+    <t>Individual UUID</t>
+  </si>
+  <si>
+    <t>4c9428c6-a5e1-4c3f-9b34-9b678fef549e</t>
+  </si>
+  <si>
+    <t>0c14378e-c0ed-4173-8953-2f6e56107dfd</t>
+  </si>
+  <si>
+    <t>579f6ce0-5bed-442d-818b-18f0dd43e248</t>
+  </si>
+  <si>
+    <t>50c94670-0928-46ce-8cc1-01a417cd91cb</t>
+  </si>
+  <si>
+    <t>08752f45-49a6-439e-abce-56079988eb5b</t>
+  </si>
+  <si>
+    <t>sister-sister</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -539,7 +615,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -573,7 +649,13 @@
     </fill>
   </fills>
   <borders count="7">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -585,8 +667,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -594,8 +678,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -605,485 +691,760 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right/>
+      <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="48">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" textRotation="90" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" textRotation="90" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" textRotation="90" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" textRotation="90" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" textRotation="90" vertical="bottom"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" textRotation="90" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" textRotation="90" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="6" fontId="4" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="6" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" ht="81.0" customHeight="1">
+    <row r="1" spans="1:73" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="BT1" s="12" t="s">
+      <c r="BU1" s="12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:73" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="18">
-        <v>37778.0</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="18">
+        <v>37778</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="14">
-        <v>9.0</v>
-      </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14">
+        <v>9</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="J2" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="K2" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="15" t="s">
+      <c r="L2" s="15"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="O2" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="P2" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="Q2" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="R2" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="R2" s="15" t="s">
-        <v>89</v>
-      </c>
       <c r="S2" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="T2" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="T2" s="15"/>
       <c r="U2" s="15"/>
-      <c r="V2" s="14">
-        <v>8.758094207E9</v>
-      </c>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15" t="s">
+      <c r="V2" s="15"/>
+      <c r="W2" s="14">
+        <v>8758094207</v>
+      </c>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="Y2" s="7">
-        <v>6.0</v>
-      </c>
       <c r="Z2" s="7">
-        <v>1.0</v>
+        <v>6</v>
       </c>
       <c r="AA2" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="AB2" s="14">
-        <v>149.0</v>
+        <v>1</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>2</v>
       </c>
       <c r="AC2" s="14">
-        <v>33.0</v>
+        <v>149</v>
       </c>
       <c r="AD2" s="14">
-        <f t="shared" ref="AD2:AD6" si="1">AC2/((AB2/100)*(AB2/100))</f>
-        <v>14.86419531</v>
+        <v>33</v>
       </c>
       <c r="AE2" s="14">
+        <f t="shared" ref="AE2:AE6" si="0">AD2/((AC2/100)*(AC2/100))</f>
+        <v>14.864195306517725</v>
+      </c>
+      <c r="AF2" s="14">
         <v>12.3</v>
       </c>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15" t="s">
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="AI2" s="15"/>
       <c r="AJ2" s="15" t="s">
         <v>89</v>
       </c>
@@ -1094,11 +1455,11 @@
         <v>89</v>
       </c>
       <c r="AM2" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AN2" s="15" t="s">
-        <v>89</v>
-      </c>
       <c r="AO2" s="15" t="s">
         <v>89</v>
       </c>
@@ -1115,11 +1476,11 @@
         <v>89</v>
       </c>
       <c r="AT2" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AU2" s="15" t="s">
-        <v>89</v>
-      </c>
       <c r="AV2" s="15" t="s">
         <v>89</v>
       </c>
@@ -1139,144 +1500,147 @@
         <v>89</v>
       </c>
       <c r="BB2" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="BC2" s="14">
-        <v>14.0</v>
-      </c>
-      <c r="BD2" s="15" t="s">
+      <c r="BD2" s="14">
+        <v>14</v>
+      </c>
+      <c r="BE2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="BE2" s="15" t="s">
+      <c r="BF2" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="BF2" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="BG2" s="15"/>
+      <c r="BG2" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="BH2" s="15"/>
-      <c r="BI2" s="15" t="s">
+      <c r="BI2" s="15"/>
+      <c r="BJ2" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="BJ2" s="15" t="s">
+      <c r="BK2" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="BK2" s="15" t="s">
-        <v>89</v>
-      </c>
       <c r="BL2" s="15" t="s">
         <v>89</v>
       </c>
       <c r="BM2" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="BN2" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="BN2" s="15" t="s">
-        <v>89</v>
-      </c>
       <c r="BO2" s="15" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="BP2" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="BQ2" s="21" t="s">
+      <c r="BQ2" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="BR2" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="BR2" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="BS2" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="BT2" s="15" t="s">
+      <c r="BT2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="BU2" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:73" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="18">
-        <v>38326.0</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="18">
+        <v>38326</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="14">
-        <v>9.0</v>
-      </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14">
+        <v>9</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="J3" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="K3" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="15" t="s">
+      <c r="L3" s="15"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="O3" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="P3" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="Q3" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="R3" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="R3" s="15" t="s">
-        <v>89</v>
-      </c>
       <c r="S3" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="T3" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="T3" s="15"/>
       <c r="U3" s="15"/>
-      <c r="V3" s="14">
-        <v>9.913979809E9</v>
-      </c>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15" t="s">
+      <c r="V3" s="15"/>
+      <c r="W3" s="14">
+        <v>9913979809</v>
+      </c>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
-      <c r="AB3" s="14">
-        <v>145.0</v>
-      </c>
+      <c r="AB3" s="5"/>
       <c r="AC3" s="14">
-        <v>30.0</v>
+        <v>145</v>
       </c>
       <c r="AD3" s="14">
-        <f t="shared" si="1"/>
-        <v>14.26872771</v>
+        <v>30</v>
       </c>
       <c r="AE3" s="14">
+        <f t="shared" si="0"/>
+        <v>14.26872770511296</v>
+      </c>
+      <c r="AF3" s="14">
         <v>12.5</v>
       </c>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15" t="s">
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="AI3" s="15"/>
       <c r="AJ3" s="15" t="s">
         <v>89</v>
       </c>
@@ -1287,11 +1651,11 @@
         <v>89</v>
       </c>
       <c r="AM3" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN3" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AN3" s="15" t="s">
-        <v>89</v>
-      </c>
       <c r="AO3" s="15" t="s">
         <v>89</v>
       </c>
@@ -1332,138 +1696,141 @@
         <v>89</v>
       </c>
       <c r="BB3" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC3" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="BC3" s="14">
-        <v>13.0</v>
-      </c>
-      <c r="BD3" s="15" t="s">
+      <c r="BD3" s="14">
+        <v>13</v>
+      </c>
+      <c r="BE3" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="BE3" s="15" t="s">
+      <c r="BF3" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="BF3" s="25" t="s">
+      <c r="BG3" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="BG3" s="25" t="s">
+      <c r="BH3" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="BH3" s="25" t="s">
+      <c r="BI3" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="BI3" s="25" t="s">
+      <c r="BJ3" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="BJ3" s="25" t="s">
+      <c r="BK3" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="BK3" s="25" t="s">
-        <v>89</v>
-      </c>
       <c r="BL3" s="25" t="s">
         <v>89</v>
       </c>
       <c r="BM3" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="BN3" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="BN3" s="25" t="s">
-        <v>89</v>
-      </c>
       <c r="BO3" s="25" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="BP3" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="BQ3" s="5"/>
+      <c r="BQ3" s="25" t="s">
+        <v>113</v>
+      </c>
       <c r="BR3" s="5"/>
       <c r="BS3" s="5"/>
-      <c r="BT3" s="25" t="s">
+      <c r="BT3" s="5"/>
+      <c r="BU3" s="25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:73" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="18">
-        <v>38199.0</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="18">
+        <v>38199</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="14">
-        <v>9.0</v>
-      </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14">
+        <v>9</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="J4" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="K4" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="15" t="s">
+      <c r="L4" s="15"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="N4" s="15"/>
       <c r="O4" s="15"/>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="R4" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="S4" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="T4" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="T4" s="15"/>
       <c r="U4" s="15"/>
-      <c r="V4" s="14">
-        <v>9.824166214E9</v>
-      </c>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15" t="s">
+      <c r="V4" s="15"/>
+      <c r="W4" s="14">
+        <v>9824166214</v>
+      </c>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AB4" s="14">
-        <v>154.0</v>
-      </c>
+      <c r="AB4" s="5"/>
       <c r="AC4" s="14">
-        <v>39.0</v>
+        <v>154</v>
       </c>
       <c r="AD4" s="14">
-        <f t="shared" si="1"/>
-        <v>16.44459437</v>
+        <v>39</v>
       </c>
       <c r="AE4" s="14">
+        <f t="shared" si="0"/>
+        <v>16.444594366672288</v>
+      </c>
+      <c r="AF4" s="14">
         <v>10.8</v>
       </c>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15" t="s">
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="AI4" s="15"/>
       <c r="AJ4" s="15" t="s">
         <v>89</v>
       </c>
@@ -1519,146 +1886,149 @@
         <v>89</v>
       </c>
       <c r="BB4" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="BC4" s="14">
-        <v>13.0</v>
-      </c>
-      <c r="BD4" s="15" t="s">
+      <c r="BD4" s="14">
+        <v>13</v>
+      </c>
+      <c r="BE4" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="BE4" s="15" t="s">
+      <c r="BF4" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="BF4" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="BG4" s="25"/>
+      <c r="BG4" s="25" t="s">
+        <v>89</v>
+      </c>
       <c r="BH4" s="25"/>
-      <c r="BI4" s="25" t="s">
+      <c r="BI4" s="25"/>
+      <c r="BJ4" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="BJ4" s="25" t="s">
+      <c r="BK4" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="BK4" s="25" t="s">
-        <v>89</v>
-      </c>
       <c r="BL4" s="25" t="s">
         <v>89</v>
       </c>
       <c r="BM4" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="BN4" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="BN4" s="25" t="s">
-        <v>89</v>
-      </c>
       <c r="BO4" s="25" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="BP4" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="BQ4" s="9"/>
+      <c r="BQ4" s="25" t="s">
+        <v>113</v>
+      </c>
       <c r="BR4" s="9"/>
       <c r="BS4" s="9"/>
-      <c r="BT4" s="25" t="s">
+      <c r="BT4" s="9"/>
+      <c r="BU4" s="25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:73" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="18">
-        <v>37895.0</v>
-      </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="18">
+        <v>37895</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="14">
-        <v>9.0</v>
-      </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14">
+        <v>9</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="J5" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="K5" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="15" t="s">
+      <c r="L5" s="15"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="O5" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="P5" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="Q5" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="R5" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="R5" s="15" t="s">
+      <c r="S5" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="S5" s="15" t="s">
+      <c r="T5" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="T5" s="15"/>
       <c r="U5" s="15"/>
-      <c r="V5" s="14">
-        <v>9.638269184E9</v>
-      </c>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15" t="s">
+      <c r="V5" s="15"/>
+      <c r="W5" s="14">
+        <v>9638269184</v>
+      </c>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="Y5" s="7">
-        <v>5.0</v>
-      </c>
       <c r="Z5" s="7">
-        <v>2.0</v>
+        <v>5</v>
       </c>
       <c r="AA5" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="AB5" s="14">
-        <v>151.0</v>
+        <v>2</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>0</v>
       </c>
       <c r="AC5" s="14">
-        <v>33.0</v>
+        <v>151</v>
       </c>
       <c r="AD5" s="14">
-        <f t="shared" si="1"/>
-        <v>14.47304943</v>
+        <v>33</v>
       </c>
       <c r="AE5" s="14">
+        <f t="shared" si="0"/>
+        <v>14.473049427656681</v>
+      </c>
+      <c r="AF5" s="14">
         <v>11.4</v>
       </c>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15" t="s">
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="AI5" s="15"/>
       <c r="AJ5" s="15" t="s">
         <v>89</v>
       </c>
@@ -1666,11 +2036,11 @@
         <v>89</v>
       </c>
       <c r="AL5" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM5" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AM5" s="15" t="s">
-        <v>89</v>
-      </c>
       <c r="AN5" s="15" t="s">
         <v>89</v>
       </c>
@@ -1714,150 +2084,153 @@
         <v>89</v>
       </c>
       <c r="BB5" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC5" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="BC5" s="14">
-        <v>14.0</v>
-      </c>
-      <c r="BD5" s="15" t="s">
+      <c r="BD5" s="14">
+        <v>14</v>
+      </c>
+      <c r="BE5" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="BE5" s="15" t="s">
+      <c r="BF5" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="BF5" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="BG5" s="15"/>
+      <c r="BG5" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="BH5" s="15"/>
-      <c r="BI5" s="15" t="s">
+      <c r="BI5" s="15"/>
+      <c r="BJ5" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="BJ5" s="15" t="s">
+      <c r="BK5" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="BK5" s="15" t="s">
-        <v>89</v>
-      </c>
       <c r="BL5" s="15" t="s">
         <v>89</v>
       </c>
       <c r="BM5" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="BN5" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="BN5" s="15" t="s">
-        <v>89</v>
-      </c>
       <c r="BO5" s="15" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="BP5" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="BQ5" s="20" t="s">
+      <c r="BQ5" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="BR5" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="BR5" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="BS5" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="BT5" s="15" t="s">
+      <c r="BT5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="BU5" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:73" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="18">
-        <v>38119.0</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="18">
+        <v>38119</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="G6" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="14">
-        <v>9.0</v>
-      </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="14">
+        <v>9</v>
+      </c>
+      <c r="I6" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="J6" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="K6" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="15" t="s">
+      <c r="L6" s="15"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="O6" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="P6" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="Q6" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="R6" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="R6" s="15" t="s">
-        <v>89</v>
-      </c>
       <c r="S6" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="T6" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="T6" s="15"/>
       <c r="U6" s="15"/>
       <c r="V6" s="15"/>
       <c r="W6" s="15"/>
-      <c r="X6" s="15" t="s">
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="Y6" s="7">
-        <v>5.0</v>
-      </c>
       <c r="Z6" s="7">
-        <v>0.0</v>
+        <v>5</v>
       </c>
       <c r="AA6" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="AB6" s="14">
-        <v>143.0</v>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>2</v>
       </c>
       <c r="AC6" s="14">
-        <v>28.0</v>
+        <v>143</v>
       </c>
       <c r="AD6" s="14">
-        <f t="shared" si="1"/>
-        <v>13.69260111</v>
+        <v>28</v>
       </c>
       <c r="AE6" s="14">
+        <f t="shared" si="0"/>
+        <v>13.692601105188519</v>
+      </c>
+      <c r="AF6" s="14">
         <v>11.7</v>
       </c>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15" t="s">
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="AI6" s="15"/>
       <c r="AJ6" s="15" t="s">
         <v>89</v>
       </c>
@@ -1868,11 +2241,11 @@
         <v>89</v>
       </c>
       <c r="AM6" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN6" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AN6" s="15" t="s">
-        <v>89</v>
-      </c>
       <c r="AO6" s="15" t="s">
         <v>89</v>
       </c>
@@ -1913,48 +2286,48 @@
         <v>89</v>
       </c>
       <c r="BB6" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC6" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="BC6" s="14">
-        <v>14.0</v>
-      </c>
-      <c r="BD6" s="15" t="s">
+      <c r="BD6" s="14">
+        <v>14</v>
+      </c>
+      <c r="BE6" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="BE6" s="15" t="s">
+      <c r="BF6" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="BF6" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="BG6" s="15"/>
+      <c r="BG6" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="BH6" s="15"/>
-      <c r="BI6" s="15" t="s">
+      <c r="BI6" s="15"/>
+      <c r="BJ6" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="BJ6" s="15" t="s">
+      <c r="BK6" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="BK6" s="15" t="s">
-        <v>89</v>
-      </c>
       <c r="BL6" s="15" t="s">
         <v>89</v>
       </c>
       <c r="BM6" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="BN6" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="BN6" s="15" t="s">
-        <v>89</v>
-      </c>
       <c r="BO6" s="15" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="BP6" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="BQ6" s="5" t="s">
-        <v>89</v>
+      <c r="BQ6" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="BR6" s="5" t="s">
         <v>89</v>
@@ -1962,23 +2335,27 @@
       <c r="BS6" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="BT6" s="15" t="s">
+      <c r="BT6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="BU6" s="15" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:BU6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2197,9 +2574,9 @@
       </c>
       <c r="BU1" s="5"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>93</v>
@@ -2215,7 +2592,7 @@
         <v>97</v>
       </c>
       <c r="G2" s="14">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>99</v>
@@ -2255,23 +2632,23 @@
         <v>110</v>
       </c>
       <c r="Y2" s="14">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="Z2" s="14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="14">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AB2" s="14">
-        <v>151.0</v>
+        <v>151</v>
       </c>
       <c r="AC2" s="14">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="AD2" s="14">
-        <f t="shared" ref="AD2:AD6" si="1">AC2/((AB2/100)*(AB2/100))</f>
-        <v>14.03447217</v>
+        <f t="shared" ref="AD2:AD6" si="0">AC2/((AB2/100)*(AB2/100))</f>
+        <v>14.034472172273146</v>
       </c>
       <c r="AE2" s="14">
         <v>9.6</v>
@@ -2340,7 +2717,7 @@
         <v>61</v>
       </c>
       <c r="BC2" s="22">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="BD2" s="24" t="s">
         <v>66</v>
@@ -2389,9 +2766,9 @@
       </c>
       <c r="BU2" s="15"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>117</v>
@@ -2400,7 +2777,7 @@
         <v>118</v>
       </c>
       <c r="D3" s="18">
-        <v>38172.0</v>
+        <v>38172</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>39</v>
@@ -2409,7 +2786,7 @@
         <v>97</v>
       </c>
       <c r="G3" s="14">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>99</v>
@@ -2444,7 +2821,7 @@
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
       <c r="V3" s="14">
-        <v>7.574038607E9</v>
+        <v>7574038607</v>
       </c>
       <c r="W3" s="15"/>
       <c r="X3" s="15" t="s">
@@ -2454,20 +2831,20 @@
         <v>121</v>
       </c>
       <c r="Z3" s="14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="14">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AB3" s="14">
-        <v>139.0</v>
+        <v>139</v>
       </c>
       <c r="AC3" s="14">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="AD3" s="14">
-        <f t="shared" si="1"/>
-        <v>13.45686041</v>
+        <f t="shared" si="0"/>
+        <v>13.456860410951816</v>
       </c>
       <c r="AE3" s="14">
         <v>11.5</v>
@@ -2579,16 +2956,16 @@
       </c>
       <c r="BU3" s="15"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>125</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="18">
-        <v>38022.0</v>
+        <v>38022</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>39</v>
@@ -2597,7 +2974,7 @@
         <v>97</v>
       </c>
       <c r="G4" s="14">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>99</v>
@@ -2638,14 +3015,14 @@
       <c r="Z4" s="15"/>
       <c r="AA4" s="15"/>
       <c r="AB4" s="14">
-        <v>139.0</v>
+        <v>139</v>
       </c>
       <c r="AC4" s="14">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="AD4" s="14">
-        <f t="shared" si="1"/>
-        <v>14.49200352</v>
+        <f t="shared" si="0"/>
+        <v>14.492003519486572</v>
       </c>
       <c r="AE4" s="14">
         <v>10.6</v>
@@ -2751,9 +3128,9 @@
       </c>
       <c r="BU4" s="15"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>130</v>
@@ -2762,7 +3139,7 @@
         <v>131</v>
       </c>
       <c r="D5" s="18">
-        <v>38372.0</v>
+        <v>38372</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>39</v>
@@ -2771,7 +3148,7 @@
         <v>97</v>
       </c>
       <c r="G5" s="14">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>99</v>
@@ -2809,23 +3186,23 @@
         <v>110</v>
       </c>
       <c r="Y5" s="14">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z5" s="14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="14">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="AC5" s="14">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="AD5" s="14">
-        <f t="shared" si="1"/>
-        <v>14.46759259</v>
+        <f t="shared" si="0"/>
+        <v>14.467592592592593</v>
       </c>
       <c r="AE5" s="14">
         <v>10.4</v>
@@ -2937,9 +3314,9 @@
       </c>
       <c r="BU5" s="15"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>138</v>
@@ -2948,7 +3325,7 @@
         <v>139</v>
       </c>
       <c r="D6" s="18">
-        <v>38443.0</v>
+        <v>38443</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>39</v>
@@ -2957,7 +3334,7 @@
         <v>97</v>
       </c>
       <c r="G6" s="14">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>99</v>
@@ -2999,23 +3376,23 @@
         <v>110</v>
       </c>
       <c r="Y6" s="14">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z6" s="14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="14">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="AC6" s="14">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="AD6" s="14">
-        <f t="shared" si="1"/>
-        <v>17.80496713</v>
+        <f t="shared" si="0"/>
+        <v>17.804967129291455</v>
       </c>
       <c r="AE6" s="14">
         <v>9.5</v>
@@ -3128,18 +3505,19 @@
       <c r="BU6" s="15"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" ht="62.25" customHeight="1">
+    <row r="1" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3197,27 +3575,27 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="8">
-        <v>38326.0</v>
+        <v>38326</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="7">
-        <v>9.913979809E9</v>
+        <v>9913979809</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>61</v>
@@ -3253,19 +3631,19 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>82</v>
       </c>
       <c r="C3" s="8">
-        <v>37778.0</v>
+        <v>37778</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="7">
-        <v>8.758094207E9</v>
+        <v>8758094207</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -3289,19 +3667,19 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>84</v>
       </c>
       <c r="C4" s="8">
-        <v>38199.0</v>
+        <v>38199</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="7">
-        <v>9.824166214E9</v>
+        <v>9824166214</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -3325,27 +3703,27 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>85</v>
       </c>
       <c r="C5" s="8">
-        <v>37895.0</v>
+        <v>37895</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="7">
-        <v>9.638269184E9</v>
+        <v>9638269184</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G5" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>61</v>
@@ -3377,27 +3755,27 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C6" s="8">
-        <v>38119.0</v>
+        <v>38119</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="7">
-        <v>9.913704884E9</v>
+        <v>9913704884</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G6" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>61</v>
@@ -3431,27 +3809,27 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C7" s="8">
-        <v>37917.0</v>
+        <v>37917</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="7">
-        <v>9.925308203E9</v>
+        <v>9925308203</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>61</v>
@@ -3486,22 +3864,72 @@
       <c r="Z7" s="5"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9217D90-786A-684C-B617-D3957F5347CB}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="31.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="46">
+        <v>37998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:BW8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.29"/>
-    <col customWidth="1" min="2" max="2" width="28.71"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3726,9 +4154,9 @@
       </c>
       <c r="BW1" s="27"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>133</v>
@@ -3780,26 +4208,26 @@
       <c r="U2" s="15"/>
       <c r="V2" s="15"/>
       <c r="W2" s="14">
-        <v>9.537079375E9</v>
+        <v>9537079375</v>
       </c>
       <c r="X2" s="15"/>
       <c r="Y2" s="15" t="s">
         <v>110</v>
       </c>
       <c r="Z2" s="7">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AA2" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="7">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AC2" s="7">
-        <v>143.0</v>
+        <v>143</v>
       </c>
       <c r="AD2" s="7">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="AE2" s="15"/>
       <c r="AF2" s="7">
@@ -3810,7 +4238,7 @@
         <v>140</v>
       </c>
       <c r="AI2" s="14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="15" t="s">
         <v>89</v>
@@ -3915,13 +4343,13 @@
         <v>89</v>
       </c>
       <c r="BV2" s="18">
-        <v>42804.0</v>
+        <v>42804</v>
       </c>
       <c r="BW2" s="27"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>143</v>
@@ -3937,7 +4365,7 @@
         <v>97</v>
       </c>
       <c r="G3" s="14">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>136</v>
@@ -3975,26 +4403,26 @@
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
       <c r="W3" s="14">
-        <v>8.469410895E9</v>
+        <v>8469410895</v>
       </c>
       <c r="X3" s="15"/>
       <c r="Y3" s="15" t="s">
         <v>110</v>
       </c>
       <c r="Z3" s="7">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AA3" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AB3" s="7">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AC3" s="7">
-        <v>143.0</v>
+        <v>143</v>
       </c>
       <c r="AD3" s="7">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="AE3" s="15"/>
       <c r="AF3" s="7">
@@ -4005,7 +4433,7 @@
         <v>140</v>
       </c>
       <c r="AI3" s="14">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AJ3" s="15" t="s">
         <v>89</v>
@@ -4112,9 +4540,9 @@
       <c r="BV3" s="15"/>
       <c r="BW3" s="27"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>145</v>
@@ -4132,7 +4560,7 @@
         <v>97</v>
       </c>
       <c r="G4" s="31">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H4" s="28" t="s">
         <v>136</v>
@@ -4170,37 +4598,37 @@
       <c r="U4" s="28"/>
       <c r="V4" s="28"/>
       <c r="W4" s="31">
-        <v>8.980441408E9</v>
+        <v>8980441408</v>
       </c>
       <c r="X4" s="28"/>
       <c r="Y4" s="28" t="s">
         <v>110</v>
       </c>
       <c r="Z4" s="32">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AA4" s="32">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="32">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AC4" s="32">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="AD4" s="32">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="AE4" s="28"/>
       <c r="AF4" s="32">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AG4" s="28"/>
       <c r="AH4" s="28" t="s">
         <v>41</v>
       </c>
       <c r="AI4" s="31">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="28" t="s">
         <v>89</v>
@@ -4307,9 +4735,9 @@
       <c r="BV4" s="28"/>
       <c r="BW4" s="34"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A5" s="22">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="35" t="s">
         <v>148</v>
@@ -4318,7 +4746,7 @@
         <v>149</v>
       </c>
       <c r="D5" s="37">
-        <v>38659.0</v>
+        <v>38659</v>
       </c>
       <c r="E5" s="35" t="s">
         <v>39</v>
@@ -4327,7 +4755,7 @@
         <v>97</v>
       </c>
       <c r="G5" s="38">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H5" s="35" t="s">
         <v>136</v>
@@ -4365,7 +4793,7 @@
       <c r="U5" s="35"/>
       <c r="V5" s="35"/>
       <c r="W5" s="38">
-        <v>8.238764052E9</v>
+        <v>8238764052</v>
       </c>
       <c r="X5" s="35"/>
       <c r="Y5" s="35" t="s">
@@ -4375,10 +4803,10 @@
         <v>121</v>
       </c>
       <c r="AA5" s="39">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="39">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="35"/>
       <c r="AD5" s="35"/>
@@ -4389,7 +4817,7 @@
         <v>41</v>
       </c>
       <c r="AI5" s="38">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="35" t="s">
         <v>89</v>
@@ -4498,9 +4926,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>151</v>
@@ -4554,26 +4982,26 @@
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
       <c r="W6" s="42">
-        <v>9.099065674E9</v>
+        <v>9099065674</v>
       </c>
       <c r="X6" s="19"/>
       <c r="Y6" s="19" t="s">
         <v>110</v>
       </c>
       <c r="Z6" s="42">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AA6" s="42">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AB6" s="42">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="42">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="AD6" s="42">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="AE6" s="19"/>
       <c r="AF6" s="42">
@@ -4584,7 +5012,7 @@
         <v>140</v>
       </c>
       <c r="AI6" s="42">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="19" t="s">
         <v>89</v>
@@ -4693,9 +5121,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>156</v>
@@ -4704,7 +5132,7 @@
         <v>157</v>
       </c>
       <c r="D7" s="18">
-        <v>38636.0</v>
+        <v>38636</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>39</v>
@@ -4749,7 +5177,7 @@
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
       <c r="W7" s="14">
-        <v>9.825019562E9</v>
+        <v>9825019562</v>
       </c>
       <c r="X7" s="15"/>
       <c r="Y7" s="15" t="s">
@@ -4759,16 +5187,16 @@
         <v>121</v>
       </c>
       <c r="AA7" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AB7" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC7" s="7">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="AD7" s="7">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="AE7" s="15"/>
       <c r="AF7" s="7">
@@ -4779,7 +5207,7 @@
         <v>140</v>
       </c>
       <c r="AI7" s="14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AJ7" s="15" t="s">
         <v>89</v>
@@ -4886,9 +5314,9 @@
       <c r="BV7" s="5"/>
       <c r="BW7" s="27"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>158</v>
@@ -4942,7 +5370,7 @@
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
       <c r="W8" s="14">
-        <v>9.968561563E9</v>
+        <v>9968561563</v>
       </c>
       <c r="X8" s="15"/>
       <c r="Y8" s="15" t="s">
@@ -4952,27 +5380,27 @@
         <v>121</v>
       </c>
       <c r="AA8" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="7">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="AD8" s="7">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="AE8" s="15"/>
       <c r="AF8" s="7">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AG8" s="15"/>
       <c r="AH8" s="15" t="s">
         <v>140</v>
       </c>
       <c r="AI8" s="14">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AJ8" s="15" t="s">
         <v>89</v>
@@ -5080,6 +5508,6 @@
       <c r="BW8" s="27"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/openchs-server-api/src/test/resources/Test Import.xlsx
+++ b/openchs-server-api/src/test/resources/Test Import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mihir/projects/work/openchs/openchs-server/openchs-server-api/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FC5882-0134-8445-9604-1A98118119A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7C9348-0617-AD48-99D6-2A089D6A745F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Amalzar_Madhyamik_24-7" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Madhyamik_Follow up_26-9" sheetId="3" r:id="rId3"/>
     <sheet name="Relationship" sheetId="5" r:id="rId4"/>
     <sheet name="ambos 3-10" sheetId="4" r:id="rId5"/>
+    <sheet name="Checklist" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="217">
   <si>
     <t>Sr No</t>
   </si>
@@ -631,6 +632,57 @@
   </si>
   <si>
     <t>Pranjalben Fatesingbhai vsava</t>
+  </si>
+  <si>
+    <t>OPV 0</t>
+  </si>
+  <si>
+    <t>Completion Date</t>
+  </si>
+  <si>
+    <t>Base Date</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Pentavalent 3</t>
+  </si>
+  <si>
+    <t>Pentavalent 2</t>
+  </si>
+  <si>
+    <t>Pentavalent 1</t>
+  </si>
+  <si>
+    <t>Albendazole 5</t>
+  </si>
+  <si>
+    <t>Albendazole 4</t>
+  </si>
+  <si>
+    <t>Albendazole 3</t>
+  </si>
+  <si>
+    <t>Albendazole 2</t>
+  </si>
+  <si>
+    <t>Albendazole 1</t>
+  </si>
+  <si>
+    <t>Vitamin A 5</t>
+  </si>
+  <si>
+    <t>Vitamin A 3</t>
+  </si>
+  <si>
+    <t>Vitamin A 2</t>
+  </si>
+  <si>
+    <t>Vitamin A 1</t>
+  </si>
+  <si>
+    <t>Measles 2</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1260,7 @@
   <dimension ref="A1:BV6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3704,7 +3756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -4180,7 +4232,7 @@
     <col min="79" max="16384" width="14.5" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" ht="78" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:78" ht="83" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -5771,4 +5823,245 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B32EF05-B456-DF43-BF49-444829713533}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="5.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="6.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="5.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="24">
+        <v>37778</v>
+      </c>
+      <c r="D2" s="24">
+        <v>37778</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="24">
+        <v>37778</v>
+      </c>
+      <c r="D3" s="24">
+        <v>37778</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="24">
+        <v>37778</v>
+      </c>
+      <c r="D4" s="24">
+        <v>37778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="24">
+        <v>37778</v>
+      </c>
+      <c r="D5" s="24">
+        <v>37778</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="24">
+        <v>37778</v>
+      </c>
+      <c r="D6" s="24">
+        <v>37778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="24">
+        <v>37778</v>
+      </c>
+      <c r="D7" s="24">
+        <v>37778</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="24">
+        <v>37778</v>
+      </c>
+      <c r="D8" s="24">
+        <v>37778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" s="24">
+        <v>37778</v>
+      </c>
+      <c r="D9" s="24">
+        <v>37778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="24">
+        <v>37778</v>
+      </c>
+      <c r="D10" s="24">
+        <v>37778</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="24">
+        <v>37778</v>
+      </c>
+      <c r="D11" s="24">
+        <v>37778</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="24">
+        <v>37778</v>
+      </c>
+      <c r="D12" s="24">
+        <v>37778</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="24">
+        <v>37778</v>
+      </c>
+      <c r="D13" s="24">
+        <v>37778</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" s="24">
+        <v>37778</v>
+      </c>
+      <c r="D14" s="24">
+        <v>37778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" s="24">
+        <v>37778</v>
+      </c>
+      <c r="D15" s="24">
+        <v>37778</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>